--- a/Zapis_Wynikow_Wzorcowania/Przykladv2.xlsx
+++ b/Zapis_Wynikow_Wzorcowania/Przykladv2.xlsx
@@ -525,12 +525,12 @@
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F7" s="1" t="inlineStr">
